--- a/R/analysis/data/Pt_08_Control.xlsx
+++ b/R/analysis/data/Pt_08_Control.xlsx
@@ -524,7 +524,7 @@
         <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.2</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>2.07</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.4</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1.23</v>
       </c>
       <c r="K4" t="n">
-        <v>4.05</v>
+        <v>0.76</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.53</v>
+        <v>2.87</v>
       </c>
       <c r="M4" t="n">
-        <v>4.38</v>
+        <v>1.27</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>2.52</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>1.85</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="e">
@@ -809,14 +809,14 @@
         <v>0.79</v>
       </c>
       <c r="K7" t="n">
-        <v>4.45</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.35</v>
+        <v>3.15</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>1.21</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>2.27</v>
       </c>
       <c r="L9" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -981,14 +981,14 @@
         <v>0.59</v>
       </c>
       <c r="K10" t="n">
-        <v>3.89</v>
+        <v>1.77</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.25</v>
+        <v>2.75</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0.71</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>1.26</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.91</v>
@@ -1159,16 +1159,16 @@
         <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.48</v>
+        <v>1.59</v>
       </c>
       <c r="L13" t="n">
-        <v>1.12</v>
+        <v>3.88</v>
       </c>
       <c r="M13" t="n">
-        <v>4.95</v>
+        <v>1.41</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>1.26</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.75</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>2.22</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
         <v>0.58</v>
@@ -1339,16 +1339,16 @@
         <v>1.38</v>
       </c>
       <c r="K16" t="n">
-        <v>7.78</v>
+        <v>1.06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.75</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>5.13</v>
+        <v>0.18</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.12</v>
+        <v>3.62</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>1.29</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>2.31</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.67</v>
+        <v>4.67</v>
       </c>
       <c r="M18" t="n">
         <v>1.48</v>
@@ -1519,16 +1519,16 @@
         <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>8.08</v>
+        <v>1.47</v>
       </c>
       <c r="L19" t="n">
-        <v>1.04</v>
+        <v>5.71</v>
       </c>
       <c r="M19" t="n">
-        <v>4.45</v>
+        <v>0.49</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.35</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>2.12</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0.71</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.47</v>
@@ -1699,16 +1699,16 @@
         <v>0.9</v>
       </c>
       <c r="K22" t="n">
-        <v>5.54</v>
+        <v>0.59</v>
       </c>
       <c r="L22" t="n">
-        <v>0.42</v>
+        <v>3.92</v>
       </c>
       <c r="M22" t="n">
-        <v>4.72</v>
+        <v>1.18</v>
       </c>
       <c r="N22" t="n">
-        <v>0.84</v>
+        <v>3.34</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>2.12</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="M24" t="n">
         <v>0.63</v>
@@ -1879,16 +1879,16 @@
         <v>0.95</v>
       </c>
       <c r="K25" t="n">
-        <v>6.01</v>
+        <v>0.35</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.25</v>
+        <v>4.25</v>
       </c>
       <c r="M25" t="n">
-        <v>4.95</v>
+        <v>2.12</v>
       </c>
       <c r="N25" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>1.15</v>
       </c>
       <c r="N26" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0.71</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
         <v>0.98</v>
@@ -2059,16 +2059,16 @@
         <v>1.01</v>
       </c>
       <c r="K28" t="n">
-        <v>5.02</v>
+        <v>0.07</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05</v>
+        <v>3.55</v>
       </c>
       <c r="M28" t="n">
-        <v>4.6</v>
+        <v>0.82</v>
       </c>
       <c r="N28" t="n">
-        <v>0.58</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
